--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/84.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/84.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1847082771010467</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.92097059795411</v>
+        <v>-1.921906352321724</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04736156249053727</v>
+        <v>0.04505562447783176</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0137830125758297</v>
+        <v>0.01140624370266566</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1775404354795576</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.783540627444665</v>
+        <v>-1.786482469182376</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002350683417502352</v>
+        <v>-0.004831337552672236</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01577257274515377</v>
+        <v>0.01343515435002225</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1775808449596996</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.753129791011576</v>
+        <v>-1.757156918933423</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04703708627122888</v>
+        <v>-0.04876850730465963</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01190520776411798</v>
+        <v>0.009522142814468736</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1814431228288468</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.776880952542442</v>
+        <v>-1.781555789332705</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08315138099035185</v>
+        <v>-0.08451290753027696</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03606482725696224</v>
+        <v>0.0332284448003784</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1809161811484914</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.743802153698748</v>
+        <v>-1.747885946308962</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.142964107599778</v>
+        <v>-0.1436802862999698</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04268357766203162</v>
+        <v>0.03916564492592459</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1681325587207098</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.601006352004789</v>
+        <v>-1.605720539273084</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2002552555768804</v>
+        <v>-0.1992195509950646</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03784032082578941</v>
+        <v>0.0348355183232264</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1373247649177794</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.46129641479814</v>
+        <v>-1.465384929465718</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2970778937854496</v>
+        <v>-0.2941738285066499</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0652770481291817</v>
+        <v>0.06200466237599757</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08641246651386518</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.241146230397419</v>
+        <v>-1.245007299301969</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3847271485550784</v>
+        <v>-0.379395945791233</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09020164091497809</v>
+        <v>0.08670259640832666</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.01551661638970215</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9458476510884394</v>
+        <v>-0.9473028317660818</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4296984488697604</v>
+        <v>-0.4227759127742799</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1320186069105735</v>
+        <v>0.1281591120251442</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.07360563941650369</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7463958181328226</v>
+        <v>-0.745962962874465</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5350239383715959</v>
+        <v>-0.5259969387109364</v>
       </c>
       <c r="G11" t="n">
-        <v>0.131267799789713</v>
+        <v>0.1274256191146181</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1786311097147507</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5231668523308378</v>
+        <v>-0.5206358295837863</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6599428178953824</v>
+        <v>-0.6490506055759816</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1440755933797367</v>
+        <v>0.1402822072974021</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2944451093388651</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2774420052472236</v>
+        <v>-0.273628156916312</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7952880000786646</v>
+        <v>-0.7843894916827787</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2076691139185271</v>
+        <v>0.2039512807540149</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4180439286893101</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05332057060346122</v>
+        <v>-0.04853083041734323</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9109972937237208</v>
+        <v>-0.8995376475110911</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2718812239719887</v>
+        <v>0.2679430281304944</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5495602773399948</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2961888012622352</v>
+        <v>0.3010698345573886</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.05023502519398</v>
+        <v>-1.039324711654684</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3062845599062578</v>
+        <v>0.3030420805163784</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6872532382401847</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5617856397522707</v>
+        <v>0.5670711959615984</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.193718673243947</v>
+        <v>-1.184481542030594</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3294808796968661</v>
+        <v>0.3273811381890509</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8212326724204061</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8123521696530058</v>
+        <v>0.817791979736221</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.325309032813367</v>
+        <v>-1.317266582113081</v>
       </c>
       <c r="G17" t="n">
-        <v>0.35844440554792</v>
+        <v>0.3571883382891221</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9416465362539609</v>
       </c>
       <c r="E18" t="n">
-        <v>1.05127568011348</v>
+        <v>1.057477315451405</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.523515029634474</v>
+        <v>-1.516058901056872</v>
       </c>
       <c r="G18" t="n">
-        <v>0.407766294713877</v>
+        <v>0.406980859172348</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.046901247904622</v>
       </c>
       <c r="E19" t="n">
-        <v>1.323494417046827</v>
+        <v>1.328392764552315</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.727275739934651</v>
+        <v>-1.720351629820049</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4429550661896752</v>
+        <v>0.4424686942811933</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.142579673785209</v>
       </c>
       <c r="E20" t="n">
-        <v>1.618138204401346</v>
+        <v>1.622855539707884</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.927882902925302</v>
+        <v>-1.922051162080883</v>
       </c>
       <c r="G20" t="n">
-        <v>0.50842953957842</v>
+        <v>0.5077873397769292</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.230511130019301</v>
       </c>
       <c r="E21" t="n">
-        <v>1.821033991194368</v>
+        <v>1.824018331448354</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.154979233708323</v>
+        <v>-2.149875476707506</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5825611181343184</v>
+        <v>0.5819330845049194</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.306226077127649</v>
       </c>
       <c r="E22" t="n">
-        <v>1.956128904337364</v>
+        <v>1.958365585508732</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.323411871840467</v>
+        <v>-2.318617409596985</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6447128371579974</v>
+        <v>0.6440234167828677</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.363373756537811</v>
       </c>
       <c r="E23" t="n">
-        <v>2.15591915140406</v>
+        <v>2.15628274982108</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.475164629344188</v>
+        <v>-2.470668443724192</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7022432360415375</v>
+        <v>0.7014578005000085</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.399529398920647</v>
       </c>
       <c r="E24" t="n">
-        <v>2.264425733550044</v>
+        <v>2.262891064906776</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.716608931427424</v>
+        <v>-2.711525636675184</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7490372504986856</v>
+        <v>0.7486248574889049</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.413657424417483</v>
       </c>
       <c r="E25" t="n">
-        <v>2.411588651296052</v>
+        <v>2.407729156410622</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.876973934553342</v>
+        <v>-2.871582132053327</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7925541571452858</v>
+        <v>0.7911123556301743</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.405409206047886</v>
       </c>
       <c r="E26" t="n">
-        <v>2.562126266038129</v>
+        <v>2.556733676528552</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.048239807103827</v>
+        <v>-3.042769303647747</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8226871792034661</v>
+        <v>0.8215271271110676</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.373687808628539</v>
       </c>
       <c r="E27" t="n">
-        <v>2.615406813294157</v>
+        <v>2.608772322697874</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.171029038756494</v>
+        <v>-3.16360596458044</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8644506285489373</v>
+        <v>0.8631740990415625</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.319845942886778</v>
       </c>
       <c r="E28" t="n">
-        <v>2.630183704804927</v>
+        <v>2.623585416648435</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.259763579710259</v>
+        <v>-3.251282764684691</v>
       </c>
       <c r="G28" t="n">
-        <v>0.890821744907209</v>
+        <v>0.8887849641642459</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.245444460410021</v>
       </c>
       <c r="E29" t="n">
-        <v>2.639539674461939</v>
+        <v>2.632154376744796</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.353737243309274</v>
+        <v>-3.343228304645911</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8914120020776968</v>
+        <v>0.8891249522944469</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.155900990852567</v>
       </c>
       <c r="E30" t="n">
-        <v>2.638030190124612</v>
+        <v>2.629706777011173</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.391106031268074</v>
+        <v>-3.378692529467936</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9010670353677552</v>
+        <v>0.8991829344795583</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.055487119197515</v>
       </c>
       <c r="E31" t="n">
-        <v>2.628168960329663</v>
+        <v>2.619735365877734</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.472472588715031</v>
+        <v>-3.45792471698641</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8660529800144214</v>
+        <v>0.8637800964032633</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9495926504807948</v>
       </c>
       <c r="E32" t="n">
-        <v>2.591302284470558</v>
+        <v>2.583148865422221</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.519103692193125</v>
+        <v>-3.502136553075064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8629332741160034</v>
+        <v>0.8603959552924667</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8409516328096397</v>
       </c>
       <c r="E33" t="n">
-        <v>2.523175588862422</v>
+        <v>2.515437710862107</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.559593760069463</v>
+        <v>-3.540857423459061</v>
       </c>
       <c r="G33" t="n">
-        <v>0.876792512479056</v>
+        <v>0.8732966160106472</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7335137219926353</v>
       </c>
       <c r="E34" t="n">
-        <v>2.46529260969571</v>
+        <v>2.4576806532251</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.579475982600173</v>
+        <v>-3.560625529603476</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8723254462128046</v>
+        <v>0.868291235204911</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6290067037842191</v>
       </c>
       <c r="E35" t="n">
-        <v>2.40516035720466</v>
+        <v>2.398291337759304</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.551758292883629</v>
+        <v>-3.532052360494505</v>
       </c>
       <c r="G35" t="n">
-        <v>0.824884509896802</v>
+        <v>0.8204882744910091</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5307554900187833</v>
       </c>
       <c r="E36" t="n">
-        <v>2.320489146612532</v>
+        <v>2.31311644104836</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.53319667239569</v>
+        <v>-3.513363244457741</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8170191363476624</v>
+        <v>0.8123002270220029</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.438974358729124</v>
       </c>
       <c r="E37" t="n">
-        <v>2.169712280964018</v>
+        <v>2.163551570123247</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.478714361540549</v>
+        <v>-3.458849453220174</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7714103582888536</v>
+        <v>0.7667827420722296</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.355191229224877</v>
       </c>
       <c r="E38" t="n">
-        <v>2.085911502945969</v>
+        <v>2.079357287324873</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.436649487533349</v>
+        <v>-3.416975822536211</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7624510414504101</v>
+        <v>0.7584514588631851</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2782558038347268</v>
       </c>
       <c r="E39" t="n">
-        <v>2.00177073679772</v>
+        <v>1.995789464136777</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.326764064637105</v>
+        <v>-3.307644454370666</v>
       </c>
       <c r="G39" t="n">
-        <v>0.708229230759844</v>
+        <v>0.7044563069260863</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2084110998361584</v>
       </c>
       <c r="E40" t="n">
-        <v>1.877229621863045</v>
+        <v>1.871316032024319</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.244513695453538</v>
+        <v>-3.225852124751397</v>
       </c>
       <c r="G40" t="n">
-        <v>0.674611330367104</v>
+        <v>0.6709359957188669</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1439633747406851</v>
       </c>
       <c r="E41" t="n">
-        <v>1.767551969490814</v>
+        <v>1.762776395476787</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.186847143916005</v>
+        <v>-3.168358715317207</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6282627633212839</v>
+        <v>0.6251131510595612</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.08512740549126199</v>
       </c>
       <c r="E42" t="n">
-        <v>1.632586125915765</v>
+        <v>1.629112265715054</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.125745295646234</v>
+        <v>-3.107766062233177</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5816403169483575</v>
+        <v>0.5787598619563773</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.0311706381534137</v>
       </c>
       <c r="E43" t="n">
-        <v>1.510135308374178</v>
+        <v>1.507246983286591</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.020983304989824</v>
+        <v>-3.004083848693979</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5272705484603891</v>
+        <v>0.5246151782027549</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.01729901923942857</v>
       </c>
       <c r="E44" t="n">
-        <v>1.318740879300499</v>
+        <v>1.316960663674308</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.966863018532582</v>
+        <v>-2.950452295173901</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4815311268145125</v>
+        <v>0.4792267628209283</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.06069210215846309</v>
       </c>
       <c r="E45" t="n">
-        <v>1.137020371746335</v>
+        <v>1.135964204915942</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.853103147569256</v>
+        <v>-2.837572300899383</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4352911670880622</v>
+        <v>0.4333456794541345</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.09900305466454505</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9635067998906321</v>
+        <v>0.9641852021319128</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.694076847706005</v>
+        <v>-2.679861094011978</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3786327747977226</v>
+        <v>0.3766762690299459</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1326191500370821</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8888762572732813</v>
+        <v>0.8900693637672273</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.649735942049404</v>
+        <v>-2.635617777540898</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3428427280175876</v>
+        <v>0.3410735305252456</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1613533804391223</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7438335432836656</v>
+        <v>0.7462764209599243</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.573141810578231</v>
+        <v>-2.559498999844357</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3508544853450081</v>
+        <v>0.3493717593327428</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1855184037410365</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6081892974673362</v>
+        <v>0.6116017709223162</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.515557895044566</v>
+        <v>-2.502042579859518</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3069204636312633</v>
+        <v>0.3056171757988263</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2054852117167124</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4755797605168746</v>
+        <v>0.4800531228596112</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.456070203383689</v>
+        <v>-2.442624145039978</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2606206911782036</v>
+        <v>0.2599076605162544</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.222747551820156</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3620709456033968</v>
+        <v>0.3671266950210146</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.427642631043438</v>
+        <v>-2.414365779755267</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2438542394981086</v>
+        <v>0.2431475049126446</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2384486032060239</v>
       </c>
       <c r="E52" t="n">
-        <v>0.205600852793138</v>
+        <v>0.211275191725427</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.431623325401207</v>
+        <v>-2.4180851869389</v>
       </c>
       <c r="G52" t="n">
-        <v>0.229036423490184</v>
+        <v>0.2282793202928383</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2541927342586348</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1481035083111452</v>
+        <v>0.1550244703875043</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.34288642341876</v>
+        <v>-2.330389498605193</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1920595662925882</v>
+        <v>0.1914362547205531</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2710862067049742</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04519413816050622</v>
+        <v>0.05225990999602501</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.300590168600728</v>
+        <v>-2.288621327202358</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1690584248730213</v>
+        <v>0.1684634456451696</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2902955654818639</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.04289426794396547</v>
+        <v>-0.03550897022682264</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.259465771018505</v>
+        <v>-2.248274495066057</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1520511482673673</v>
+        <v>0.1516765317164978</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3124632263716366</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08264297281417174</v>
+        <v>-0.07497592567431609</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.23334492370052</v>
+        <v>-2.222934361232237</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1234685350436681</v>
+        <v>0.1231269728943459</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3385769822484998</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1535840146111937</v>
+        <v>-0.1453912450848237</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.20785840608842</v>
+        <v>-2.19789958710795</v>
       </c>
       <c r="G57" t="n">
-        <v>0.122703561750716</v>
+        <v>0.1220393256815271</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3684674328222057</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2305063290691584</v>
+        <v>-0.2224300369577645</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.190901498094647</v>
+        <v>-2.181318869684169</v>
       </c>
       <c r="G58" t="n">
-        <v>0.108915154248122</v>
+        <v>0.1082052716244154</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4020569077528617</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3046819801604533</v>
+        <v>-0.2970731717280857</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.184843885506321</v>
+        <v>-2.175553237642844</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08846234978594084</v>
+        <v>0.08775089314311292</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4378986396982121</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3456411057349398</v>
+        <v>-0.3377946204152558</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.196173675141444</v>
+        <v>-2.186673682734833</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06141283118638851</v>
+        <v>0.0609469215264835</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4753248269738813</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3723191558218651</v>
+        <v>-0.364722939542468</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.144093317465408</v>
+        <v>-2.13576990435197</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02314370429020489</v>
+        <v>0.02310750185041497</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.512926730990809</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4143564844944426</v>
+        <v>-0.4065052771173948</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.125957469149781</v>
+        <v>-2.118164500480221</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0586457055711419</v>
+        <v>0.05849617375461834</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5509252403639314</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4248394518423051</v>
+        <v>-0.417101573841991</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.150996965331432</v>
+        <v>-2.1437454592396</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02733216917198602</v>
+        <v>0.02736050151616943</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5891133804371615</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4130091241266092</v>
+        <v>-0.4045818257511653</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.120479095598094</v>
+        <v>-2.11442305702889</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009988052474373741</v>
+        <v>0.01021313720871974</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6287871302901787</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4665116080787409</v>
+        <v>-0.4583629110877672</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.130469394960989</v>
+        <v>-2.124465299022788</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009857408887305782</v>
+        <v>0.009939257881613419</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6697653463105765</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4860420373358398</v>
+        <v>-0.4778602859433188</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.118825588511168</v>
+        <v>-2.113117408167771</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02278932170759178</v>
+        <v>-0.02291209519905324</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.713161941608021</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5075573047048989</v>
+        <v>-0.5000555295727799</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.150777389664011</v>
+        <v>-2.144694592769744</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.022602013432157</v>
+        <v>-0.02286959668277812</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7590194658816349</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.453713258603445</v>
+        <v>-0.4459690845266456</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.182848029260512</v>
+        <v>-2.176998187196198</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04466818749367134</v>
+        <v>-0.04482244136755881</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8085569194021743</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4169425979107396</v>
+        <v>-0.4097131280866055</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.208746152872833</v>
+        <v>-2.202635810643944</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07412910338705632</v>
+        <v>-0.07418891611366574</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8611093140476646</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3379347081170516</v>
+        <v>-0.3312089244117338</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.217896713034515</v>
+        <v>-2.211787157815186</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08223530186175486</v>
+        <v>-0.08227465233978738</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.917129491308847</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2841347345509941</v>
+        <v>-0.2773318239087325</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.243519383300608</v>
+        <v>-2.23732561805829</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08770501830827475</v>
+        <v>-0.08747206347832225</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9755541108798471</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2242732133488076</v>
+        <v>-0.217234199838351</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.29613884252569</v>
+        <v>-2.289723140587268</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07261804503060766</v>
+        <v>-0.07215213537070266</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.03556941325868</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.09658878222889583</v>
+        <v>-0.08959856331119948</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.305664806247802</v>
+        <v>-2.299329379284567</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08815046571960285</v>
+        <v>-0.08767196390672743</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.094769231294211</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.02290894716081063</v>
+        <v>-0.01605881594491004</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.3497357676251</v>
+        <v>-2.343461727407595</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0763799507305163</v>
+        <v>-0.07579126757914985</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.150963083295537</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0726104032153216</v>
+        <v>0.07990755586167159</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.380518859580377</v>
+        <v>-2.374109453718441</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08160412019411328</v>
+        <v>-0.08083285082467595</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.200322989219285</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2093202599767715</v>
+        <v>0.2166237086996067</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.404303075512791</v>
+        <v>-2.398120328404322</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09245698203548153</v>
+        <v>-0.09134729855496454</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.240454289427271</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3531761635489266</v>
+        <v>0.3605740534190398</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.34249921471492</v>
+        <v>-2.337278193289565</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1008528000284994</v>
+        <v>-0.09910878684209823</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.267619643524717</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5366328141938856</v>
+        <v>0.5442195863585549</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.33683668092604</v>
+        <v>-2.332156335068853</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07613755178583599</v>
+        <v>-0.07472250859578668</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.279881250764244</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6569602799408381</v>
+        <v>0.6646037167938742</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.269076731773167</v>
+        <v>-2.264818223040488</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06508951157342646</v>
+        <v>-0.06293940145372973</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.274745929286286</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8123175412323372</v>
+        <v>0.8197831139246664</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.248053345379514</v>
+        <v>-2.244418148218871</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04452180371539038</v>
+        <v>-0.04243465436054566</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.251576463298312</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9347116940855574</v>
+        <v>0.942561327443484</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.208460468402317</v>
+        <v>-2.205155815257146</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01731488320370799</v>
+        <v>-0.01500422313363858</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.209659719008586</v>
       </c>
       <c r="E82" t="n">
-        <v>1.086941379383032</v>
+        <v>1.094540743700672</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.152684313829467</v>
+        <v>-2.149498499127954</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02189055678932909</v>
+        <v>-0.01932490562160897</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.150078703054941</v>
       </c>
       <c r="E83" t="n">
-        <v>1.155779531633996</v>
+        <v>1.163408802314941</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.095437238387761</v>
+        <v>-2.092903067602466</v>
       </c>
       <c r="G83" t="n">
-        <v>0.004603333060404087</v>
+        <v>0.007510546377446458</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.073786431203942</v>
       </c>
       <c r="E84" t="n">
-        <v>1.291870798880775</v>
+        <v>1.29967006362682</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.013752729078301</v>
+        <v>-2.011543593241555</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03351019422309122</v>
+        <v>0.03639694529155668</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.9827060162946655</v>
       </c>
       <c r="E85" t="n">
-        <v>1.301765083077271</v>
+        <v>1.309554903708589</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.857396752654336</v>
+        <v>-1.856186331950056</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04915594428882006</v>
+        <v>0.05205843554849852</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.8795051198076007</v>
       </c>
       <c r="E86" t="n">
-        <v>1.345592071490768</v>
+        <v>1.353695121927224</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.762328358756457</v>
+        <v>-1.761696390079254</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06888155191696027</v>
+        <v>0.07165339958957079</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.7694084977490013</v>
       </c>
       <c r="E87" t="n">
-        <v>1.354129551204703</v>
+        <v>1.363125070482936</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571639877258681</v>
+        <v>-1.571581638551193</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06294907384877799</v>
+        <v>0.06577916022887662</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.6579206641493359</v>
       </c>
       <c r="E88" t="n">
-        <v>1.346138256125859</v>
+        <v>1.355988467786959</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.42442422987211</v>
+        <v>-1.424585566832044</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09141048760013702</v>
+        <v>0.09440742000709353</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5514868053037753</v>
       </c>
       <c r="E89" t="n">
-        <v>1.357343698250399</v>
+        <v>1.36741427258848</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.23133300818567</v>
+        <v>-1.231144125891114</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08533634781103766</v>
+        <v>0.0881680082102576</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4548585960203647</v>
       </c>
       <c r="E90" t="n">
-        <v>1.297619116711765</v>
+        <v>1.307552751386294</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065140986272697</v>
+        <v>-1.065280286964932</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09474426009905187</v>
+        <v>0.09758379059387831</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3734532078358846</v>
       </c>
       <c r="E91" t="n">
-        <v>1.236578655187725</v>
+        <v>1.246210078190964</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8748279083353523</v>
+        <v>-0.8747680956087429</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06240761127105054</v>
+        <v>0.06527232607181779</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3102852679825197</v>
       </c>
       <c r="E92" t="n">
-        <v>1.221806485734318</v>
+        <v>1.231323005341702</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7102075445149986</v>
+        <v>-0.7096582118416647</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04464480548717228</v>
+        <v>0.04768266239128261</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2670983240557783</v>
       </c>
       <c r="E93" t="n">
-        <v>1.202255594228642</v>
+        <v>1.211247965468633</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5345092341189306</v>
+        <v>-0.5341676719696083</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02725504223504228</v>
+        <v>0.02977662086736599</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2417066887549615</v>
       </c>
       <c r="E94" t="n">
-        <v>1.169925241477126</v>
+        <v>1.17880113530214</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4038514808788818</v>
+        <v>-0.4023309784077053</v>
       </c>
       <c r="G94" t="n">
-        <v>0.006884086767168784</v>
+        <v>0.009791300084211155</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2302198403808838</v>
       </c>
       <c r="E95" t="n">
-        <v>1.138964285361141</v>
+        <v>1.146784012355763</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2682182531964015</v>
+        <v>-0.2666678443619204</v>
       </c>
       <c r="G95" t="n">
-        <v>0.001784264814154555</v>
+        <v>0.004370378230451585</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2255468317778614</v>
       </c>
       <c r="E96" t="n">
-        <v>1.107236781933083</v>
+        <v>1.1152926117959</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1605018286493103</v>
+        <v>-0.1585264346520779</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03317312585081242</v>
+        <v>-0.0306200668360627</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2230539079504495</v>
       </c>
       <c r="E97" t="n">
-        <v>1.054326129170561</v>
+        <v>1.062060859132632</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07853635692669825</v>
+        <v>-0.07665383005762262</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06366345024952805</v>
+        <v>-0.06110881721565703</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2198419072658989</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9926308756920588</v>
+        <v>0.9993991579136517</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06715462466057297</v>
+        <v>-0.06581198635010348</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08847313963946948</v>
+        <v>-0.08612155507224625</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2171914321114318</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9401924286659264</v>
+        <v>0.9462083297475377</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.005179195778479688</v>
+        <v>-0.003666563402909727</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1256026766918314</v>
+        <v>-0.1230543397344456</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2171717883130738</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9194075061691508</v>
+        <v>0.9240508625769879</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04391760865313137</v>
+        <v>0.0446841559652048</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1268681880653572</v>
+        <v>-0.1245528059379239</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2215179655312972</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8578460443159597</v>
+        <v>0.8615654514995932</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06882331320947215</v>
+        <v>0.06982438937061938</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1572215728005196</v>
+        <v>-0.155244604784166</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2328811795279714</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7954015577357187</v>
+        <v>0.7979152662724359</v>
       </c>
       <c r="F102" t="n">
-        <v>0.113092600996054</v>
+        <v>0.1136781361091778</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1487234435646172</v>
+        <v>-0.1469306357854557</v>
       </c>
     </row>
   </sheetData>
